--- a/msg.xlsx
+++ b/msg.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\msg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>название ЖК</t>
   </si>
@@ -210,88 +214,39 @@
   </si>
   <si>
     <t>Компания "Палас Файненшиал Ко"</t>
-  </si>
-  <si>
-    <t>Не наш клиент!</t>
-  </si>
-  <si>
-    <t>спасибо</t>
-  </si>
-  <si>
-    <t>Не берут трубку!</t>
-  </si>
-  <si>
-    <t>топотоп</t>
-  </si>
-  <si>
-    <t>отлично</t>
-  </si>
-  <si>
-    <t>aasdasdasd</t>
-  </si>
-  <si>
-    <t>фывфывфывф</t>
-  </si>
-  <si>
-    <t>adassadasdasdasdasdad</t>
-  </si>
-  <si>
-    <t>cxzczx</t>
-  </si>
-  <si>
-    <t>sdadssd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -302,10 +257,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -318,7 +270,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -332,8 +290,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -343,60 +303,57 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -686,29 +643,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G39" sqref="A36:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="true" style="0"/>
-    <col min="3" max="3" width="52.7109375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="26.28515625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="24.140625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -722,14 +676,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4">
-        <v>158.7</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -738,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -756,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -772,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -788,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -806,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -824,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -842,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -860,7 +814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -876,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -885,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="4">
-        <v>152.3</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>18</v>
@@ -894,7 +848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -910,14 +864,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
@@ -926,7 +880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -942,7 +896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" customHeight="1" ht="15.6">
+    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -960,7 +914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customHeight="1" ht="15.2">
+    <row r="16" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -978,7 +932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -994,7 +948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1062,14 +1016,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4">
-        <v>145.7</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>43</v>
@@ -1078,7 +1032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1094,14 +1048,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>47</v>
@@ -1110,7 +1064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +1100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1226,14 +1180,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="10">
-        <v>148.8</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>58</v>
@@ -1242,7 +1196,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" customHeight="1" ht="26.25">
+    <row r="33" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:7" customHeight="1" ht="26.25">
+    <row r="34" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7" customHeight="1" ht="26.25">
+    <row r="35" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1296,127 +1250,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="C36" s="0">
-        <v>79857888887</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="C37" s="0">
-        <v>89859970936</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="C38" s="0">
-        <v>89167060787</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="C39" s="0">
-        <v>79652772477</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="C40" s="0">
-        <v>79859236040</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="C41" s="0">
-        <v>79166838997</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="C42" s="0">
-        <v>79652772477</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="C43" s="0">
-        <v>89161536666</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="C44" s="0">
-        <v>79166838997</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="C45" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="C46" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>